--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.743734032968648</v>
+        <v>0.8331583333333333</v>
       </c>
       <c r="H2">
-        <v>0.743734032968648</v>
+        <v>2.499475</v>
       </c>
       <c r="I2">
-        <v>0.02632303364140754</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="J2">
-        <v>0.02632303364140754</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90316843546414</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N2">
-        <v>1.90316843546414</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O2">
-        <v>0.04382566701257665</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P2">
-        <v>0.04382566701257665</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q2">
-        <v>1.415451135926377</v>
+        <v>1.632139400955555</v>
       </c>
       <c r="R2">
-        <v>1.415451135926377</v>
+        <v>14.6892546086</v>
       </c>
       <c r="S2">
-        <v>0.00115362450712918</v>
+        <v>0.0009656906503342155</v>
       </c>
       <c r="T2">
-        <v>0.00115362450712918</v>
+        <v>0.0009656906503342155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.743734032968648</v>
+        <v>0.8331583333333333</v>
       </c>
       <c r="H3">
-        <v>0.743734032968648</v>
+        <v>2.499475</v>
       </c>
       <c r="I3">
-        <v>0.02632303364140754</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="J3">
-        <v>0.02632303364140754</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.7822875133015</v>
+        <v>26.851518</v>
       </c>
       <c r="N3">
-        <v>26.7822875133015</v>
+        <v>80.554554</v>
       </c>
       <c r="O3">
-        <v>0.6167355408596766</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P3">
-        <v>0.6167355408596766</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q3">
-        <v>19.91889870439359</v>
+        <v>22.37156598435</v>
       </c>
       <c r="R3">
-        <v>19.91889870439359</v>
+        <v>201.34409385915</v>
       </c>
       <c r="S3">
-        <v>0.01623435038990095</v>
+        <v>0.01323662187909528</v>
       </c>
       <c r="T3">
-        <v>0.01623435038990095</v>
+        <v>0.01323662187909528</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.743734032968648</v>
+        <v>0.8331583333333333</v>
       </c>
       <c r="H4">
-        <v>0.743734032968648</v>
+        <v>2.499475</v>
       </c>
       <c r="I4">
-        <v>0.02632303364140754</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="J4">
-        <v>0.02632303364140754</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.420206054720799</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N4">
-        <v>0.420206054720799</v>
+        <v>0.386678</v>
       </c>
       <c r="O4">
-        <v>0.009676395576816666</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P4">
-        <v>0.009676395576816666</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q4">
-        <v>0.3125215437553442</v>
+        <v>0.1073879993388889</v>
       </c>
       <c r="R4">
-        <v>0.3125215437553442</v>
+        <v>0.96649199405</v>
       </c>
       <c r="S4">
-        <v>0.0002547120862961123</v>
+        <v>6.35384372553885E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002547120862961123</v>
+        <v>6.35384372553885E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.743734032968648</v>
+        <v>0.8331583333333333</v>
       </c>
       <c r="H5">
-        <v>0.743734032968648</v>
+        <v>2.499475</v>
       </c>
       <c r="I5">
-        <v>0.02632303364140754</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="J5">
-        <v>0.02632303364140754</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6017713141398831</v>
+        <v>0.4473283333333333</v>
       </c>
       <c r="N5">
-        <v>0.6017713141398831</v>
+        <v>1.341985</v>
       </c>
       <c r="O5">
-        <v>0.01385743307831993</v>
+        <v>0.009799561315032583</v>
       </c>
       <c r="P5">
-        <v>0.01385743307831993</v>
+        <v>0.009799561315032582</v>
       </c>
       <c r="Q5">
-        <v>0.4475578063900985</v>
+        <v>0.3726953286527778</v>
       </c>
       <c r="R5">
-        <v>0.4475578063900985</v>
+        <v>3.354257957875</v>
       </c>
       <c r="S5">
-        <v>0.0003647696771041693</v>
+        <v>0.0002205132687149839</v>
       </c>
       <c r="T5">
-        <v>0.0003647696771041693</v>
+        <v>0.0002205132687149839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.743734032968648</v>
+        <v>0.8331583333333333</v>
       </c>
       <c r="H6">
-        <v>0.743734032968648</v>
+        <v>2.499475</v>
       </c>
       <c r="I6">
-        <v>0.02632303364140754</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="J6">
-        <v>0.02632303364140754</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.718453045221</v>
+        <v>0.6170946666666667</v>
       </c>
       <c r="N6">
-        <v>13.718453045221</v>
+        <v>1.851284</v>
       </c>
       <c r="O6">
-        <v>0.3159049634726101</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="P6">
-        <v>0.3159049634726101</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="Q6">
-        <v>10.20288040941325</v>
+        <v>0.5141375639888889</v>
       </c>
       <c r="R6">
-        <v>10.20288040941325</v>
+        <v>4.6272380759</v>
       </c>
       <c r="S6">
-        <v>0.008315576980977138</v>
+        <v>0.0003042006327639655</v>
       </c>
       <c r="T6">
-        <v>0.008315576980977138</v>
+        <v>0.0003042006327639655</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.11748140833804</v>
+        <v>0.8331583333333333</v>
       </c>
       <c r="H7">
-        <v>9.11748140833804</v>
+        <v>2.499475</v>
       </c>
       <c r="I7">
-        <v>0.3226956938875314</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="J7">
-        <v>0.3226956938875314</v>
+        <v>0.02250236124108079</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.90316843546414</v>
+        <v>15.64397933333333</v>
       </c>
       <c r="N7">
-        <v>1.90316843546414</v>
+        <v>46.931938</v>
       </c>
       <c r="O7">
-        <v>0.04382566701257665</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="P7">
-        <v>0.04382566701257665</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="Q7">
-        <v>17.35210282728009</v>
+        <v>13.03391174806111</v>
       </c>
       <c r="R7">
-        <v>17.35210282728009</v>
+        <v>117.30520573255</v>
       </c>
       <c r="S7">
-        <v>0.01414235402670732</v>
+        <v>0.007711796372916958</v>
       </c>
       <c r="T7">
-        <v>0.01414235402670732</v>
+        <v>0.007711796372916958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.11748140833804</v>
+        <v>9.369586</v>
       </c>
       <c r="H8">
-        <v>9.11748140833804</v>
+        <v>28.108758</v>
       </c>
       <c r="I8">
-        <v>0.3226956938875314</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="J8">
-        <v>0.3226956938875314</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.7822875133015</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N8">
-        <v>26.7822875133015</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O8">
-        <v>0.6167355408596766</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P8">
-        <v>0.6167355408596766</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q8">
-        <v>244.1870084752905</v>
+        <v>18.35481908949866</v>
       </c>
       <c r="R8">
-        <v>244.1870084752905</v>
+        <v>165.193371805488</v>
       </c>
       <c r="S8">
-        <v>0.1990179033028154</v>
+        <v>0.01086002652281262</v>
       </c>
       <c r="T8">
-        <v>0.1990179033028154</v>
+        <v>0.01086002652281262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.11748140833804</v>
+        <v>9.369586</v>
       </c>
       <c r="H9">
-        <v>9.11748140833804</v>
+        <v>28.108758</v>
       </c>
       <c r="I9">
-        <v>0.3226956938875314</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="J9">
-        <v>0.3226956938875314</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.420206054720799</v>
+        <v>26.851518</v>
       </c>
       <c r="N9">
-        <v>0.420206054720799</v>
+        <v>80.554554</v>
       </c>
       <c r="O9">
-        <v>0.009676395576816666</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P9">
-        <v>0.009676395576816666</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q9">
-        <v>3.831220891587962</v>
+        <v>251.587607131548</v>
       </c>
       <c r="R9">
-        <v>3.831220891587962</v>
+        <v>2264.288464183932</v>
       </c>
       <c r="S9">
-        <v>0.003122531184991094</v>
+        <v>0.1488572604794985</v>
       </c>
       <c r="T9">
-        <v>0.003122531184991094</v>
+        <v>0.1488572604794985</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.11748140833804</v>
+        <v>9.369586</v>
       </c>
       <c r="H10">
-        <v>9.11748140833804</v>
+        <v>28.108758</v>
       </c>
       <c r="I10">
-        <v>0.3226956938875314</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="J10">
-        <v>0.3226956938875314</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6017713141398831</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N10">
-        <v>0.6017713141398831</v>
+        <v>0.386678</v>
       </c>
       <c r="O10">
-        <v>0.01385743307831993</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P10">
-        <v>0.01385743307831993</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q10">
-        <v>5.486638768741535</v>
+        <v>1.207670925102667</v>
       </c>
       <c r="R10">
-        <v>5.486638768741535</v>
+        <v>10.869038325924</v>
       </c>
       <c r="S10">
-        <v>0.004471733982708482</v>
+        <v>0.000714544676986127</v>
       </c>
       <c r="T10">
-        <v>0.004471733982708482</v>
+        <v>0.0007145446769861269</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.11748140833804</v>
+        <v>9.369586</v>
       </c>
       <c r="H11">
-        <v>9.11748140833804</v>
+        <v>28.108758</v>
       </c>
       <c r="I11">
-        <v>0.3226956938875314</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="J11">
-        <v>0.3226956938875314</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.718453045221</v>
+        <v>0.4473283333333333</v>
       </c>
       <c r="N11">
-        <v>13.718453045221</v>
+        <v>1.341985</v>
       </c>
       <c r="O11">
-        <v>0.3159049634726101</v>
+        <v>0.009799561315032583</v>
       </c>
       <c r="P11">
-        <v>0.3159049634726101</v>
+        <v>0.009799561315032582</v>
       </c>
       <c r="Q11">
-        <v>125.0777405909608</v>
+        <v>4.191281289403333</v>
       </c>
       <c r="R11">
-        <v>125.0777405909608</v>
+        <v>37.72153160463</v>
       </c>
       <c r="S11">
-        <v>0.1019411713903092</v>
+        <v>0.002479862413546226</v>
       </c>
       <c r="T11">
-        <v>0.1019411713903092</v>
+        <v>0.002479862413546226</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.274536500683875</v>
+        <v>9.369586</v>
       </c>
       <c r="H12">
-        <v>0.274536500683875</v>
+        <v>28.108758</v>
       </c>
       <c r="I12">
-        <v>0.00971669067563106</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="J12">
-        <v>0.00971669067563106</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.90316843546414</v>
+        <v>0.6170946666666667</v>
       </c>
       <c r="N12">
-        <v>1.90316843546414</v>
+        <v>1.851284</v>
       </c>
       <c r="O12">
-        <v>0.04382566701257665</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="P12">
-        <v>0.04382566701257665</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="Q12">
-        <v>0.5224892024843302</v>
+        <v>5.781921549474667</v>
       </c>
       <c r="R12">
-        <v>0.5224892024843302</v>
+        <v>52.037293945272</v>
       </c>
       <c r="S12">
-        <v>0.0004258404500144152</v>
+        <v>0.0034209991977552</v>
       </c>
       <c r="T12">
-        <v>0.0004258404500144152</v>
+        <v>0.0034209991977552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.274536500683875</v>
+        <v>9.369586</v>
       </c>
       <c r="H13">
-        <v>0.274536500683875</v>
+        <v>28.108758</v>
       </c>
       <c r="I13">
-        <v>0.00971669067563106</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="J13">
-        <v>0.00971669067563106</v>
+        <v>0.2530585129093588</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.7822875133015</v>
+        <v>15.64397933333333</v>
       </c>
       <c r="N13">
-        <v>26.7822875133015</v>
+        <v>46.931938</v>
       </c>
       <c r="O13">
-        <v>0.6167355408596766</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="P13">
-        <v>0.6167355408596766</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="Q13">
-        <v>7.352715494211234</v>
+        <v>146.5776097458893</v>
       </c>
       <c r="R13">
-        <v>7.352715494211234</v>
+        <v>1319.198487713004</v>
       </c>
       <c r="S13">
-        <v>0.005992628479201499</v>
+        <v>0.08672581961876015</v>
       </c>
       <c r="T13">
-        <v>0.005992628479201499</v>
+        <v>0.08672581961876015</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.274536500683875</v>
+        <v>0.2787653333333333</v>
       </c>
       <c r="H14">
-        <v>0.274536500683875</v>
+        <v>0.8362959999999999</v>
       </c>
       <c r="I14">
-        <v>0.00971669067563106</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="J14">
-        <v>0.00971669067563106</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.420206054720799</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N14">
-        <v>0.420206054720799</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O14">
-        <v>0.009676395576816666</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P14">
-        <v>0.009676395576816666</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q14">
-        <v>0.115361899829225</v>
+        <v>0.546095341006222</v>
       </c>
       <c r="R14">
-        <v>0.115361899829225</v>
+        <v>4.914858069055999</v>
       </c>
       <c r="S14">
-        <v>9.402254267497213E-05</v>
+        <v>0.0003231091441650358</v>
       </c>
       <c r="T14">
-        <v>9.402254267497213E-05</v>
+        <v>0.0003231091441650358</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.274536500683875</v>
+        <v>0.2787653333333333</v>
       </c>
       <c r="H15">
-        <v>0.274536500683875</v>
+        <v>0.8362959999999999</v>
       </c>
       <c r="I15">
-        <v>0.00971669067563106</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="J15">
-        <v>0.00971669067563106</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6017713141398831</v>
+        <v>26.851518</v>
       </c>
       <c r="N15">
-        <v>0.6017713141398831</v>
+        <v>80.554554</v>
       </c>
       <c r="O15">
-        <v>0.01385743307831993</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P15">
-        <v>0.01385743307831993</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q15">
-        <v>0.1652081907959004</v>
+        <v>7.485272365775999</v>
       </c>
       <c r="R15">
-        <v>0.1652081907959004</v>
+        <v>67.367451291984</v>
       </c>
       <c r="S15">
-        <v>0.0001346483907802927</v>
+        <v>0.004428823625361272</v>
       </c>
       <c r="T15">
-        <v>0.0001346483907802927</v>
+        <v>0.004428823625361272</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.274536500683875</v>
+        <v>0.2787653333333333</v>
       </c>
       <c r="H16">
-        <v>0.274536500683875</v>
+        <v>0.8362959999999999</v>
       </c>
       <c r="I16">
-        <v>0.00971669067563106</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="J16">
-        <v>0.00971669067563106</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>13.718453045221</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N16">
-        <v>13.718453045221</v>
+        <v>0.386678</v>
       </c>
       <c r="O16">
-        <v>0.3159049634726101</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P16">
-        <v>0.3159049634726101</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q16">
-        <v>3.766216093831022</v>
+        <v>0.03593080718755556</v>
       </c>
       <c r="R16">
-        <v>3.766216093831022</v>
+        <v>0.323377264688</v>
       </c>
       <c r="S16">
-        <v>0.003069550812959881</v>
+        <v>2.1259240809743E-05</v>
       </c>
       <c r="T16">
-        <v>0.003069550812959881</v>
+        <v>2.125924080974299E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.26414889277241</v>
+        <v>0.2787653333333333</v>
       </c>
       <c r="H17">
-        <v>1.26414889277241</v>
+        <v>0.8362959999999999</v>
       </c>
       <c r="I17">
-        <v>0.0447421152685089</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="J17">
-        <v>0.0447421152685089</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.90316843546414</v>
+        <v>0.4473283333333333</v>
       </c>
       <c r="N17">
-        <v>1.90316843546414</v>
+        <v>1.341985</v>
       </c>
       <c r="O17">
-        <v>0.04382566701257665</v>
+        <v>0.009799561315032583</v>
       </c>
       <c r="P17">
-        <v>0.04382566701257665</v>
+        <v>0.009799561315032582</v>
       </c>
       <c r="Q17">
-        <v>2.405888270451392</v>
+        <v>0.1246996319511111</v>
       </c>
       <c r="R17">
-        <v>2.405888270451392</v>
+        <v>1.12229668756</v>
       </c>
       <c r="S17">
-        <v>0.001960853045195993</v>
+        <v>7.378123988968329E-05</v>
       </c>
       <c r="T17">
-        <v>0.001960853045195993</v>
+        <v>7.378123988968328E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.26414889277241</v>
+        <v>0.2787653333333333</v>
       </c>
       <c r="H18">
-        <v>1.26414889277241</v>
+        <v>0.8362959999999999</v>
       </c>
       <c r="I18">
-        <v>0.0447421152685089</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="J18">
-        <v>0.0447421152685089</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>26.7822875133015</v>
+        <v>0.6170946666666667</v>
       </c>
       <c r="N18">
-        <v>26.7822875133015</v>
+        <v>1.851284</v>
       </c>
       <c r="O18">
-        <v>0.6167355408596766</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="P18">
-        <v>0.6167355408596766</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="Q18">
-        <v>33.85679910585244</v>
+        <v>0.1720246004515555</v>
       </c>
       <c r="R18">
-        <v>33.85679910585244</v>
+        <v>1.548221404064</v>
       </c>
       <c r="S18">
-        <v>0.02759405265932983</v>
+        <v>0.0001017820831886589</v>
       </c>
       <c r="T18">
-        <v>0.02759405265932983</v>
+        <v>0.0001017820831886589</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.26414889277241</v>
+        <v>0.2787653333333333</v>
       </c>
       <c r="H19">
-        <v>1.26414889277241</v>
+        <v>0.8362959999999999</v>
       </c>
       <c r="I19">
-        <v>0.0447421152685089</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="J19">
-        <v>0.0447421152685089</v>
+        <v>0.007529034975933305</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.420206054720799</v>
+        <v>15.64397933333333</v>
       </c>
       <c r="N19">
-        <v>0.420206054720799</v>
+        <v>46.931938</v>
       </c>
       <c r="O19">
-        <v>0.009676395576816666</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="P19">
-        <v>0.009676395576816666</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="Q19">
-        <v>0.5312030188115608</v>
+        <v>4.360999113516444</v>
       </c>
       <c r="R19">
-        <v>0.5312030188115608</v>
+        <v>39.248992021648</v>
       </c>
       <c r="S19">
-        <v>0.000432942406281621</v>
+        <v>0.002580279642518913</v>
       </c>
       <c r="T19">
-        <v>0.000432942406281621</v>
+        <v>0.002580279642518913</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>1.26414889277241</v>
+        <v>0.237604</v>
       </c>
       <c r="H20">
-        <v>1.26414889277241</v>
+        <v>0.712812</v>
       </c>
       <c r="I20">
-        <v>0.0447421152685089</v>
+        <v>0.006417328887457279</v>
       </c>
       <c r="J20">
-        <v>0.0447421152685089</v>
+        <v>0.006417328887457278</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6017713141398831</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N20">
-        <v>0.6017713141398831</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O20">
-        <v>0.01385743307831993</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P20">
-        <v>0.01385743307831993</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q20">
-        <v>0.7607285404721313</v>
+        <v>0.4654611671146666</v>
       </c>
       <c r="R20">
-        <v>0.7607285404721313</v>
+        <v>4.189150504031999</v>
       </c>
       <c r="S20">
-        <v>0.0006200108681158386</v>
+        <v>0.0002754001875778045</v>
       </c>
       <c r="T20">
-        <v>0.0006200108681158386</v>
+        <v>0.0002754001875778044</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,309 +1706,309 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>1.26414889277241</v>
+        <v>0.237604</v>
       </c>
       <c r="H21">
-        <v>1.26414889277241</v>
+        <v>0.712812</v>
       </c>
       <c r="I21">
-        <v>0.0447421152685089</v>
+        <v>0.006417328887457279</v>
       </c>
       <c r="J21">
-        <v>0.0447421152685089</v>
+        <v>0.006417328887457278</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>13.718453045221</v>
+        <v>26.851518</v>
       </c>
       <c r="N21">
-        <v>13.718453045221</v>
+        <v>80.554554</v>
       </c>
       <c r="O21">
-        <v>0.3159049634726101</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P21">
-        <v>0.3159049634726101</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q21">
-        <v>17.34216722766643</v>
+        <v>6.380028082872</v>
       </c>
       <c r="R21">
-        <v>17.34216722766643</v>
+        <v>57.420252745848</v>
       </c>
       <c r="S21">
-        <v>0.01413425628958562</v>
+        <v>0.003774881891149807</v>
       </c>
       <c r="T21">
-        <v>0.01413425628958562</v>
+        <v>0.003774881891149807</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>16.8542146710849</v>
+        <v>0.237604</v>
       </c>
       <c r="H22">
-        <v>16.8542146710849</v>
+        <v>0.712812</v>
       </c>
       <c r="I22">
-        <v>0.5965224665269212</v>
+        <v>0.006417328887457279</v>
       </c>
       <c r="J22">
-        <v>0.5965224665269212</v>
+        <v>0.006417328887457278</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>1.90316843546414</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N22">
-        <v>1.90316843546414</v>
+        <v>0.386678</v>
       </c>
       <c r="O22">
-        <v>0.04382566701257665</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P22">
-        <v>0.04382566701257665</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q22">
-        <v>32.07640936654541</v>
+        <v>0.03062541317066667</v>
       </c>
       <c r="R22">
-        <v>32.07640936654541</v>
+        <v>0.275628718536</v>
       </c>
       <c r="S22">
-        <v>0.02614299498352975</v>
+        <v>1.812018945454065E-05</v>
       </c>
       <c r="T22">
-        <v>0.02614299498352975</v>
+        <v>1.812018945454065E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>16.8542146710849</v>
+        <v>0.237604</v>
       </c>
       <c r="H23">
-        <v>16.8542146710849</v>
+        <v>0.712812</v>
       </c>
       <c r="I23">
-        <v>0.5965224665269212</v>
+        <v>0.006417328887457279</v>
       </c>
       <c r="J23">
-        <v>0.5965224665269212</v>
+        <v>0.006417328887457278</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>26.7822875133015</v>
+        <v>0.4473283333333333</v>
       </c>
       <c r="N23">
-        <v>26.7822875133015</v>
+        <v>1.341985</v>
       </c>
       <c r="O23">
-        <v>0.6167355408596766</v>
+        <v>0.009799561315032583</v>
       </c>
       <c r="P23">
-        <v>0.6167355408596766</v>
+        <v>0.009799561315032582</v>
       </c>
       <c r="Q23">
-        <v>451.3944231319001</v>
+        <v>0.1062870013133333</v>
       </c>
       <c r="R23">
-        <v>451.3944231319001</v>
+        <v>0.9565830118199999</v>
       </c>
       <c r="S23">
-        <v>0.3678966060284291</v>
+        <v>6.288700791136744E-05</v>
       </c>
       <c r="T23">
-        <v>0.3678966060284291</v>
+        <v>6.288700791136741E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>16.8542146710849</v>
+        <v>0.237604</v>
       </c>
       <c r="H24">
-        <v>16.8542146710849</v>
+        <v>0.712812</v>
       </c>
       <c r="I24">
-        <v>0.5965224665269212</v>
+        <v>0.006417328887457279</v>
       </c>
       <c r="J24">
-        <v>0.5965224665269212</v>
+        <v>0.006417328887457278</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.420206054720799</v>
+        <v>0.6170946666666667</v>
       </c>
       <c r="N24">
-        <v>0.420206054720799</v>
+        <v>1.851284</v>
       </c>
       <c r="O24">
-        <v>0.009676395576816666</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="P24">
-        <v>0.009676395576816666</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="Q24">
-        <v>7.082243052353995</v>
+        <v>0.1466241611786667</v>
       </c>
       <c r="R24">
-        <v>7.082243052353995</v>
+        <v>1.319617450608</v>
       </c>
       <c r="S24">
-        <v>0.005772187356572868</v>
+        <v>8.675336278288351E-05</v>
       </c>
       <c r="T24">
-        <v>0.005772187356572868</v>
+        <v>8.675336278288351E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>16.8542146710849</v>
+        <v>0.237604</v>
       </c>
       <c r="H25">
-        <v>16.8542146710849</v>
+        <v>0.712812</v>
       </c>
       <c r="I25">
-        <v>0.5965224665269212</v>
+        <v>0.006417328887457279</v>
       </c>
       <c r="J25">
-        <v>0.5965224665269212</v>
+        <v>0.006417328887457278</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.6017713141398831</v>
+        <v>15.64397933333333</v>
       </c>
       <c r="N25">
-        <v>0.6017713141398831</v>
+        <v>46.931938</v>
       </c>
       <c r="O25">
-        <v>0.01385743307831993</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="P25">
-        <v>0.01385743307831993</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="Q25">
-        <v>10.14238291141446</v>
+        <v>3.717072065517334</v>
       </c>
       <c r="R25">
-        <v>10.14238291141446</v>
+        <v>33.45364858965601</v>
       </c>
       <c r="S25">
-        <v>0.008266270159611153</v>
+        <v>0.002199286248580875</v>
       </c>
       <c r="T25">
-        <v>0.008266270159611153</v>
+        <v>0.002199286248580875</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,743 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.289843666666667</v>
+      </c>
+      <c r="H26">
+        <v>3.869531</v>
+      </c>
+      <c r="I26">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="J26">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.958978666666666</v>
+      </c>
+      <c r="N26">
+        <v>5.876935999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="P26">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="Q26">
+        <v>2.526776226335111</v>
+      </c>
+      <c r="R26">
+        <v>22.74098603701599</v>
+      </c>
+      <c r="S26">
+        <v>0.001495021917754091</v>
+      </c>
+      <c r="T26">
+        <v>0.001495021917754091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.289843666666667</v>
+      </c>
+      <c r="H27">
+        <v>3.869531</v>
+      </c>
+      <c r="I27">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="J27">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.851518</v>
+      </c>
+      <c r="N27">
+        <v>80.554554</v>
+      </c>
+      <c r="O27">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="P27">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="Q27">
+        <v>34.634260432686</v>
+      </c>
+      <c r="R27">
+        <v>311.708343894174</v>
+      </c>
+      <c r="S27">
+        <v>0.02049211082184756</v>
+      </c>
+      <c r="T27">
+        <v>0.02049211082184756</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.289843666666667</v>
+      </c>
+      <c r="H28">
+        <v>3.869531</v>
+      </c>
+      <c r="I28">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="J28">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1288926666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.386678</v>
+      </c>
+      <c r="O28">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="P28">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="Q28">
+        <v>0.1662513897797778</v>
+      </c>
+      <c r="R28">
+        <v>1.496262508018</v>
+      </c>
+      <c r="S28">
+        <v>9.836623797048609E-05</v>
+      </c>
+      <c r="T28">
+        <v>9.836623797048608E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.289843666666667</v>
+      </c>
+      <c r="H29">
+        <v>3.869531</v>
+      </c>
+      <c r="I29">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="J29">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4473283333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.341985</v>
+      </c>
+      <c r="O29">
+        <v>0.009799561315032583</v>
+      </c>
+      <c r="P29">
+        <v>0.009799561315032582</v>
+      </c>
+      <c r="Q29">
+        <v>0.5769836176705555</v>
+      </c>
+      <c r="R29">
+        <v>5.192852559035</v>
+      </c>
+      <c r="S29">
+        <v>0.0003413848625027097</v>
+      </c>
+      <c r="T29">
+        <v>0.0003413848625027096</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.289843666666667</v>
+      </c>
+      <c r="H30">
+        <v>3.869531</v>
+      </c>
+      <c r="I30">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="J30">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6170946666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.851284</v>
+      </c>
+      <c r="O30">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="P30">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="Q30">
+        <v>0.7959556475337778</v>
+      </c>
+      <c r="R30">
+        <v>7.163600827804</v>
+      </c>
+      <c r="S30">
+        <v>0.0004709444098059713</v>
+      </c>
+      <c r="T30">
+        <v>0.0004709444098059713</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.289843666666667</v>
+      </c>
+      <c r="H31">
+        <v>3.869531</v>
+      </c>
+      <c r="I31">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="J31">
+        <v>0.03483674947561411</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.64397933333333</v>
+      </c>
+      <c r="N31">
+        <v>46.931938</v>
+      </c>
+      <c r="O31">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="P31">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="Q31">
+        <v>20.17828766456422</v>
+      </c>
+      <c r="R31">
+        <v>181.604588981078</v>
+      </c>
+      <c r="S31">
+        <v>0.01193892122573329</v>
+      </c>
+      <c r="T31">
+        <v>0.01193892122573329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>25.01641633333334</v>
+      </c>
+      <c r="H32">
+        <v>75.049249</v>
+      </c>
+      <c r="I32">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="J32">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.958978666666666</v>
+      </c>
+      <c r="N32">
+        <v>5.876935999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="P32">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="Q32">
+        <v>49.00662591345155</v>
+      </c>
+      <c r="R32">
+        <v>441.0596332210639</v>
+      </c>
+      <c r="S32">
+        <v>0.0289958323543562</v>
+      </c>
+      <c r="T32">
+        <v>0.0289958323543562</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>25.01641633333334</v>
+      </c>
+      <c r="H33">
+        <v>75.049249</v>
+      </c>
+      <c r="I33">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="J33">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.851518</v>
+      </c>
+      <c r="N33">
+        <v>80.554554</v>
+      </c>
+      <c r="O33">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="P33">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="Q33">
+        <v>671.728753469994</v>
+      </c>
+      <c r="R33">
+        <v>6045.558781229946</v>
+      </c>
+      <c r="S33">
+        <v>0.3974428755330898</v>
+      </c>
+      <c r="T33">
+        <v>0.3974428755330898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>25.01641633333334</v>
+      </c>
+      <c r="H34">
+        <v>75.049249</v>
+      </c>
+      <c r="I34">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="J34">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1288926666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.386678</v>
+      </c>
+      <c r="O34">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="P34">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="Q34">
+        <v>3.22443261164689</v>
+      </c>
+      <c r="R34">
+        <v>29.019893504822</v>
+      </c>
+      <c r="S34">
+        <v>0.001907805438602318</v>
+      </c>
+      <c r="T34">
+        <v>0.001907805438602318</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>25.01641633333334</v>
+      </c>
+      <c r="H35">
+        <v>75.049249</v>
+      </c>
+      <c r="I35">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="J35">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4473283333333333</v>
+      </c>
+      <c r="N35">
+        <v>1.341985</v>
+      </c>
+      <c r="O35">
+        <v>0.009799561315032583</v>
+      </c>
+      <c r="P35">
+        <v>0.009799561315032582</v>
+      </c>
+      <c r="Q35">
+        <v>11.19055182436278</v>
+      </c>
+      <c r="R35">
+        <v>100.714966419265</v>
+      </c>
+      <c r="S35">
+        <v>0.006621132522467614</v>
+      </c>
+      <c r="T35">
+        <v>0.006621132522467612</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>16.8542146710849</v>
-      </c>
-      <c r="H26">
-        <v>16.8542146710849</v>
-      </c>
-      <c r="I26">
-        <v>0.5965224665269212</v>
-      </c>
-      <c r="J26">
-        <v>0.5965224665269212</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>13.718453045221</v>
-      </c>
-      <c r="N26">
-        <v>13.718453045221</v>
-      </c>
-      <c r="O26">
-        <v>0.3159049634726101</v>
-      </c>
-      <c r="P26">
-        <v>0.3159049634726101</v>
-      </c>
-      <c r="Q26">
-        <v>231.2137525793531</v>
-      </c>
-      <c r="R26">
-        <v>231.2137525793531</v>
-      </c>
-      <c r="S26">
-        <v>0.1884444079987783</v>
-      </c>
-      <c r="T26">
-        <v>0.1884444079987783</v>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>25.01641633333334</v>
+      </c>
+      <c r="H36">
+        <v>75.049249</v>
+      </c>
+      <c r="I36">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="J36">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6170946666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.851284</v>
+      </c>
+      <c r="O36">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="P36">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="Q36">
+        <v>15.43749709841289</v>
+      </c>
+      <c r="R36">
+        <v>138.937473885716</v>
+      </c>
+      <c r="S36">
+        <v>0.009133929738949342</v>
+      </c>
+      <c r="T36">
+        <v>0.009133929738949342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>25.01641633333334</v>
+      </c>
+      <c r="H37">
+        <v>75.049249</v>
+      </c>
+      <c r="I37">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="J37">
+        <v>0.6756560125105557</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.64397933333333</v>
+      </c>
+      <c r="N37">
+        <v>46.931938</v>
+      </c>
+      <c r="O37">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="P37">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="Q37">
+        <v>391.3563001127292</v>
+      </c>
+      <c r="R37">
+        <v>3522.206701014562</v>
+      </c>
+      <c r="S37">
+        <v>0.2315544369230905</v>
+      </c>
+      <c r="T37">
+        <v>0.2315544369230905</v>
       </c>
     </row>
   </sheetData>
